--- a/data/Pinto.xlsx
+++ b/data/Pinto.xlsx
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1630,16 +1630,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SUCESIÓN FACUSE RIADI</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,16 +1678,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SUCESIÓN FACUSE RIADI</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/Pinto.xlsx
+++ b/data/Pinto.xlsx
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1630,16 +1630,16 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SUCESIÓN FACUSE RIADI</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,16 +1678,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SUCESIÓN FACUSE RIADI</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">

--- a/data/Pinto.xlsx
+++ b/data/Pinto.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Embalse Zapallar</t>
+          <t>Edificio Refugio Nevados de Chillán</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Turismo Ñuble S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>212500</v>
+        <v>3000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/09/2020</t>
+          <t>26/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148043163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155975648&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12/09/2019</t>
+          <t>21/09/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144167716&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2148043163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Edificio Nevados de Chillán</t>
+          <t>Embalse Zapallar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Consorcio Chillán Uno S.A.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20000</v>
+        <v>212500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19/07/2018</t>
+          <t>12/09/2019</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140140086&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2144167716&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
+          <t>Edificio Nevados de Chillán</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,30 +578,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transportes Pacífico Limitada</t>
+          <t>Consorcio Chillán Uno S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9903</v>
+        <v>20000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15/05/2018</t>
+          <t>19/07/2018</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140140086&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Edificios Nevados de Chillán</t>
+          <t>Transporte para Distribución Terrestre de Combustible, Regiones del Maule, Biobío y La Araucanía</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,30 +626,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Consorcio Chillán Uno S.A.</t>
+          <t>Transportes Pacífico Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>20000</v>
+        <v>9903</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>08/03/2018</t>
+          <t>15/05/2018</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131472151&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2139110908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Edificio Valle Hermoso</t>
+          <t>Edificios Nevados de Chillán</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/11/2017</t>
+          <t>08/03/2018</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132316093&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131472151&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>30/03/2017</t>
+          <t>07/11/2017</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132241259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132316093&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada Radales SpA</t>
+          <t>Edificio Valle Hermoso</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Empresa Eléctrica Radales SpA</t>
+          <t>Consorcio Chillán Uno S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>39980</v>
+        <v>5000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13/03/2017</t>
+          <t>30/03/2017</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132234442&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132241259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Edificio Valle Hermoso</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada Radales SpA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Consorcio Chillán Uno S.A.</t>
+          <t>Empresa Eléctrica Radales SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5000</v>
+        <v>39980</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>28/02/2017</t>
+          <t>13/03/2017</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132171324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132234442&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EDIFICIOS VALLE HERMOSO NEVADOS DE CHILLÁN</t>
+          <t>Edificio Valle Hermoso</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>19/07/2016</t>
+          <t>28/02/2017</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131373957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132171324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Edificios Monte Blanco</t>
+          <t>EDIFICIOS VALLE HERMOSO NEVADOS DE CHILLÁN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Inmobiliaria San José S.A.</t>
+          <t>Consorcio Chillán Uno S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/11/2015</t>
+          <t>19/07/2016</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130933391&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131373957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Subdivisión simple de Loteo Farellones Predio El Plan</t>
+          <t>Edificios Monte Blanco</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Suc. Raul Vallejos y otros</t>
+          <t>Inmobiliaria San José S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/08/2014</t>
+          <t>27/11/2015</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130933391&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Edificios Termas de Chillán</t>
+          <t>Subdivisión simple de Loteo Farellones Predio El Plan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Constructora Santa Isabel Ltda.</t>
+          <t>Suc. Raul Vallejos y otros</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10/06/2014</t>
+          <t>18/08/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129504964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129586405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mini Central Hidroeléctrica Río Chillán</t>
+          <t>Edificios Termas de Chillán</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad Hidroeléctrica Río Chillán SpA</t>
+          <t>Inmobiliaria y Constructora Santa Isabel Ltda.</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1071,17 +1071,17 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/12/2013</t>
+          <t>10/06/2014</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916539&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129504964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pequeña Central Hidroeléctrica de Pasada Halcones</t>
+          <t>Mini Central Hidroeléctrica Río Chillán</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aaktei Energía SpA</t>
+          <t>Sociedad Hidroeléctrica Río Chillán SpA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>09/12/2013</t>
+          <t>20/12/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128679549&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128916539&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
+          <t>Pequeña Central Hidroeléctrica de Pasada Halcones</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Charrúa Transmisora de Energía S.A.</t>
+          <t>Aaktei Energía SpA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>140400</v>
+        <v>24000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>08/10/2013</t>
+          <t>09/12/2013</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128679549&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,12 +1192,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>PROYECTO NUEVA LÍNEA 2X500 KV CHARRÚA-ANCOA: TENDIDO DEL PRIMER CONDUCTOR</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Charrúa Transmisora de Energía S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>140400</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>08/10/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128641162&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Termas de Chillán</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Inmobiliaria Altos de Chillán S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>6000</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>25/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313216&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLAN REGULADOR COMUNAL DE PINTO (e-seia)</t>
+          <t>Conjunto Habitacional Termas de Chillán</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pinto</t>
+          <t>Inmobiliaria Altos de Chillán S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>6000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/11/2009</t>
+          <t>25/11/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4054622&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6313216&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CENTRO de REPRODUCCIÓN del HUEMUL (e-seia)</t>
+          <t>PLAN REGULADOR COMUNAL DE PINTO (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>CONAF, Región del Biobío</t>
+          <t>Ilustre Municipalidad de Pinto</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>944</v>
+        <v>50</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21/09/2009</t>
+          <t>23/11/2009</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4054278&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4054622&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>CENTRO de REPRODUCCIÓN del HUEMUL (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>CONAF, Región del Biobío</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>22</v>
+        <v>944</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>21/09/2009</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4054278&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ganadera Bio Ñuble S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6500</v>
+        <v>22</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/05/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,36 +1528,40 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Aguas Calientes CHAguasCalientes</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>produccion porcina premium(organica,limpia,bienestar animal) (e-seia)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Hydrochile S.A</t>
+          <t>Ganadera Bio Ñuble S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>80000</v>
+        <v>6500</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/04/2009</t>
+          <t>27/05/2009</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3695060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3571828&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1572,14 +1576,10 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región de Bío Bío (e-seia)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>Central Hidroeléctrica Aguas Calientes CHAguasCalientes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>Décimosexta</t>
@@ -1587,15 +1587,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SUCESIÓN FACUSE RIADI</t>
+          <t>Hydrochile S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>80000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06/05/2008</t>
+          <t>15/04/2009</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2885294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3695060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región de Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1630,30 +1630,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SUCESIÓN FACUSE RIADI</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>06/05/2008</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2885294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,16 +1678,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SUCESIÓN FACUSE RIADI</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1726,30 +1726,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>SUCESIÓN FACUSE RIADI</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1779,15 +1779,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1827,25 +1827,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Molina y Compañia Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/02/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1860,30 +1860,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>EXPLORACION GEOTERMICA PROFUNDA NEVADOS DE CHILLAN SECTOR VALLE DE LAS NIEBLAS</t>
+          <t>PROYECTO TRANSPORTE SUSTANCIAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Geotermia S.A.</t>
+          <t>Transportes Molina y Compañia Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>9000</v>
+        <v>80</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07/02/2007</t>
+          <t>08/02/2007</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2010231&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986780&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1908,40 +1908,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>EXPLORACION GEOTERMICA PROFUNDA NEVADOS DE CHILLAN SECTOR VALLE DE LAS NIEBLAS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa Nacional de Geotermia S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>200</v>
+        <v>9000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>07/02/2007</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2010231&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Exploración Geotermica Profunda Nevados de Chillán, Sector Valle de las Nieblas . (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2014,30 +2014,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Geotermia S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>9000</v>
+        <v>200</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1808601&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Centro de Convenciones y Casino Termas de Chillan (e-seia)</t>
+          <t>Exploración Geotermica Profunda Nevados de Chillán, Sector Valle de las Nieblas . (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2067,25 +2067,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hotelera Somontur S.A.</t>
+          <t>Empresa Nacional de Geotermia S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>15/11/2006</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1708535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1808601&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Centro de Convenciones y Casino Termas de Chillan (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2110,30 +2110,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Hotelera Somontur S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1708535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2171,17 +2171,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2211,25 +2211,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>28/12/2005</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Piscicultura Frio Natur, Chillán (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano, Región del Biobío (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2254,30 +2254,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Comercializadora de Productos Alimenticios FRIO NATUR Limitada</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región del Biobío</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>28/09/2005</t>
+          <t>28/12/2005</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1038386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1187129&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas de Pinto (e-seia)</t>
+          <t>Modificación Proyecto Piscicultura Frio Natur, Chillán (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2307,25 +2307,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ESSBIO S.A.</t>
+          <t>Comercializadora de Productos Alimenticios FRIO NATUR Limitada</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1050</v>
+        <v>350</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/07/2005</t>
+          <t>28/09/2005</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=914023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1038386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>PROYECTO PISCICULTURA FRIO NATUR CHILLAN (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas de Pinto (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2355,25 +2355,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Comercializadora de Productos Alimenticios FRIO NATUR Limitada</t>
+          <t>ESSBIO S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/01/2005</t>
+          <t>06/07/2005</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560956&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=914023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado de Aguas Servidas de Pinto Urbano y Otros Sectores (e-seia)</t>
+          <t>PROYECTO PISCICULTURA FRIO NATUR CHILLAN (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2403,25 +2403,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Pinto</t>
+          <t>Comercializadora de Productos Alimenticios FRIO NATUR Limitada</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2400</v>
+        <v>350</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/11/2004</t>
+          <t>06/01/2005</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=560956&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Programa Sendero de Chile, Construcción Tramo El Trumao - Río Polcura, en Reserva Naciuonal Ñuble, Comuna de Pinto (e-seia)</t>
+          <t>Red de Alcantarillado de Aguas Servidas de Pinto Urbano y Otros Sectores (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2451,15 +2451,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Corporación Nacional Forestal</t>
+          <t>Ilustre Municipalidad de Pinto</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>64</v>
+        <v>2400</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/11/2003</t>
+          <t>19/11/2004</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2469,7 +2469,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=514210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Centro Frio Natur Acuicola Lebu (e-seia)</t>
+          <t>Programa Sendero de Chile, Construcción Tramo El Trumao - Río Polcura, en Reserva Naciuonal Ñuble, Comuna de Pinto (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2499,25 +2499,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Comercial, Piscicultura y Acuicultura Frionatur Ltda.</t>
+          <t>Corporación Nacional Forestal</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>10000</v>
+        <v>64</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>07/01/2003</t>
+          <t>07/11/2003</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42516&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=194684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Embalse Diguillín</t>
+          <t>Centro Frio Natur Acuicola Lebu (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2547,25 +2547,25 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Comercial, Piscicultura y Acuicultura Frionatur Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>30350</v>
+        <v>10000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>20/02/2002</t>
+          <t>07/01/2003</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=42516&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2580,12 +2580,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Piscicultura Frionatur Chillán</t>
+          <t>Embalse Diguillín</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2595,25 +2595,25 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Comercializadora de Productos Alimenticios FRIO NATUR Limitada</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>360</v>
+        <v>30350</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/03/2001</t>
+          <t>20/02/2002</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Complejo Turístico Los Raudales</t>
+          <t>Piscicultura Frionatur Chillán</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2643,15 +2643,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Domingo Sequelín Flores Hernández</t>
+          <t>Comercializadora de Productos Alimenticios FRIO NATUR Limitada</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>27/07/1999</t>
+          <t>30/03/2001</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2676,43 +2676,91 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Complejo Turístico Los Raudales</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Décimosexta</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Domingo Sequelín Flores Hernández</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>150</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>27/07/1999</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Pinto</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Gasoducto Trasandino y Distribución de Gas Natural en Chile</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Interregional</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>Gasoducto del Pacífico S.A.</t>
         </is>
       </c>
-      <c r="F49" t="n">
+      <c r="F50" t="n">
         <v>850000</v>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>31/01/1996</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=92&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Pinto</t>
         </is>

--- a/data/Pinto.xlsx
+++ b/data/Pinto.xlsx
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,16 +1678,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SUCESIÓN FACUSE RIADI</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1726,16 +1726,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SUCESIÓN FACUSE RIADI</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/Pinto.xlsx
+++ b/data/Pinto.xlsx
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,16 +1678,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SUCESIÓN FACUSE RIADI</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1726,16 +1726,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SUCESIÓN FACUSE RIADI</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/Pinto.xlsx
+++ b/data/Pinto.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>26/05/2022</t>
+          <t>31/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,16 +1678,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SUCESIÓN FACUSE RIADI</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1726,16 +1726,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SUCESIÓN FACUSE RIADI</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">

--- a/data/Pinto.xlsx
+++ b/data/Pinto.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1678,16 +1678,16 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décimosexta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>SUCESIÓN FACUSE RIADI</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>234</v>
+        <v>2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Subdivisión Simple de Retazo del Fundo Potreros de Cordillera de la Comuna de Pinto de la Región del Bío Bío (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1726,16 +1726,16 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Décimosexta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SUCESIÓN FACUSE RIADI</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>234</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1744,12 +1744,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2428654&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
